--- a/medicine/Enfance/Patrick_Mosconi/Patrick_Mosconi.xlsx
+++ b/medicine/Enfance/Patrick_Mosconi/Patrick_Mosconi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Mosconi, né à Pau le 26 mai 1950, est un romancier, scénariste, et peintre.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il crée en 1979, avec Alain Fleig, les éditions Phot'œil, et notamment la collection « Sanguine », qui révèle les précurseurs du nouveau roman noir français (néopolar).
 Patrick Mosconi continue la collection « Sanguine » chez Albin Michel, avant d'être conseiller littéraire pour diverses maisons d'éditions. Parmi les auteurs qu'il découvre, on compte Frédéric H. Fajardie, Thierry Jonquet, Marc Villard, Jean-Bernard Pouy, Patrick Raynal, Jean-Pierre Bastid, Michel Quint, Tonino Benacquista, Gérard Delteil…
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Sanguine comédie, Fleuve noir, coll. « Engrenage » no 132, 1986
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sanguine comédie, Fleuve noir, coll. « Engrenage » no 132, 1986
 Le Moine sanglant avec Jean-Pierre Bastid, Éd. Carrère, 1987  (ISBN 9782868043672)
 Nature morte, Fleuve noir, 1988. La petite vermillon, La Table Ronde, 2019
 Nuit apache, éditions Gallimard, Série noire no 2241, 1990, coll. « Folio » 1996
@@ -562,9 +581,43 @@
 Raskolnikov, in  Le dictionnaire des personnages populaires, éditions du Seuil, 2010
 Épigraphes, avec Elsa Jonquet, éditions du Seuil, 2011
 Mélancolies, éditions Gallimard, coll. « Folio » no 5467, 2012
-On ne joue pas avec le diable, éditions Calmann-Lévy, 2015
-Littérature d'enfance et de jeunesse
-La Belle et le Loubard, éditions Syros, 1989
+On ne joue pas avec le diable, éditions Calmann-Lévy, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Mosconi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Mosconi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Belle et le Loubard, éditions Syros, 1989
 Sur la route de Fort Apache, éditions Albin Michel, Carnets du monde, 1992
 Toute l'eau de mon cœur, illustratons de Mireille Vautier, éditions Albin Michel, 1994
 Le Voleur de famille, éditions Casterman, 1997
@@ -575,31 +628,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Patrick_Mosconi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Patrick_Mosconi</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Adaptation pour la télévision de La Belle et le Loubard, réalisé par Jean-Pierre Bastid
 Nature morte, réalisé par Péter Gárdos, scénario Patrick Mosconi et Joseph Périgot, 1992
@@ -608,36 +663,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Patrick_Mosconi</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Patrick_Mosconi</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Théâtre</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Brisez la glace !, avec Dominique Zay, mise en scène : Stéphane Fiévet, 1997</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -659,10 +684,44 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brisez la glace !, avec Dominique Zay, mise en scène : Stéphane Fiévet, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Mosconi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Mosconi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La Nuit apache : Prix du festival de Saint-Nazaire, 1991
 Le Roi des menteurs : Prix des jeunes lecteurs de roman policier du festival polar de Saint-Ouen-l'Aumône, 1989</t>
